--- a/Samples/excel-insert-file/SalesTemplate.xlsx
+++ b/Samples/excel-insert-file/SalesTemplate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24117"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC0EA6B-D716-43B7-BFBB-82E8BE9A69F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E408D3B-CB6E-4878-BF26-1F967D91E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="0" windowWidth="33750" windowHeight="15600" xr2:uid="{AFACE3D4-5BBF-4627-8228-27E01625A5D6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Product</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Contoso Sales Report</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D9D9244-4B7C-45E0-90AD-47859C73DC3A}" name="SalesTable" displayName="SalesTable" ref="B4:F5" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D9D9244-4B7C-45E0-90AD-47859C73DC3A}" name="SalesTable" displayName="SalesTable" ref="B4:F5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B4:F5" xr:uid="{D899B2EB-013E-4A37-9421-3F6076D3027A}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9591BA89-1311-4FF5-A505-85435FA0D7D3}" name="Product"/>
@@ -621,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27044DE2-F059-4391-9FFF-3223A4AD6EA9}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +667,23 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
